--- a/Models/Inputs/management_scenarios/sdi_based/sdi_60_full.xlsx
+++ b/Models/Inputs/management_scenarios/sdi_based/sdi_60_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swflake\Documents\TCSI-conservation-finance\Models\Inputs\management_scenarios\sdi_based\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BF21A-9DEA-44E6-8653-352C5CDB82ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FD8C2A-08AC-4806-8DD2-2FCBF4640FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="18000" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +235,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +341,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="1">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>20</v>
       </c>
       <c r="C29" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="C50" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>18</v>
       </c>
       <c r="C51" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="C52" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="C57" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D65">
         <v>0</v>
